--- a/project/Ch_selenium/image_crawling/youtube_tv.xlsx
+++ b/project/Ch_selenium/image_crawling/youtube_tv.xlsx
@@ -482,22 +482,27 @@
           <t>https://www.youtube.com/embed/Asl855SD1fw</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/Asl855SD1fw/hqdefault.jpg?sqp=-oaymwEcCNACELwBSFXyq4qpAw4IARUAAIhCGAFwAcABBg==&amp;rs=AOn4CLBOsaiCFYPreexoibsseC95EZv5yA</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Top 10 킬리안 음바페 전세계에 충격을 준 순간들</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>49000</v>
+        <v>89000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>749</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -520,20 +525,25 @@
           <t>https://www.youtube.com/embed/9tei3X-Jr7o</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/9tei3X-Jr7o/hqdefault.jpg?sqp=-oaymwEcCNACELwBSFXyq4qpAw4IARUAAIhCGAFwAcABBg==&amp;rs=AOn4CLC3CJZ15G4Tt0znA5TOGdeQXoau4w</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Only Timo Werner Can Miss These Chances</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="G3" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>129</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -556,22 +566,27 @@
           <t>https://www.youtube.com/embed/cLYeDdsrgWE</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/cLYeDdsrgWE/hqdefault.jpg?sqp=-oaymwEcCNACELwBSFXyq4qpAw4IARUAAIhCGAFwAcABBg==&amp;rs=AOn4CLCZuh4uPEJmoLSzk5qakMryq0w_wQ</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>세계에 충격을 준 도둑맞은 골</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>36000</v>
+        <v>58000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>331</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
